--- a/data/trans_orig/P15B_tráfico-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P15B_tráfico-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>6715</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2926</v>
+        <v>3048</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11813</v>
+        <v>11883</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2947512666613057</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1284434893918742</v>
+        <v>0.1338020160801337</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5185169381502124</v>
+        <v>0.521575452143731</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -765,19 +765,19 @@
         <v>2776</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6722</v>
+        <v>6753</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1749806160497819</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05281064162320003</v>
+        <v>0.05299228401911459</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4236561337802685</v>
+        <v>0.4256131013290362</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -786,19 +786,19 @@
         <v>9491</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5274</v>
+        <v>4700</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>15480</v>
+        <v>15391</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2455797846090927</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1364659787346862</v>
+        <v>0.1215949002408588</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4005278728398505</v>
+        <v>0.3982147225823164</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>16067</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10969</v>
+        <v>10899</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>19856</v>
+        <v>19734</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7052487333386943</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4814830618497877</v>
+        <v>0.4784245478562693</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8715565106081258</v>
+        <v>0.8661979839198664</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>13</v>
@@ -836,19 +836,19 @@
         <v>13091</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>9145</v>
+        <v>9114</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>15029</v>
+        <v>15026</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8250193839502181</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.576343866219732</v>
+        <v>0.5743868986709637</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9471893583768</v>
+        <v>0.9470077159808854</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>29</v>
@@ -857,19 +857,19 @@
         <v>29158</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>23169</v>
+        <v>23258</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>33375</v>
+        <v>33949</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7544202153909072</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5994721271601496</v>
+        <v>0.6017852774176837</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8635340212653139</v>
+        <v>0.8784050997591415</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>15584</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9095</v>
+        <v>8862</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22859</v>
+        <v>23019</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3642805811744576</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2126105505819461</v>
+        <v>0.2071486722493637</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5343443493759609</v>
+        <v>0.5380678936055487</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -982,19 +982,19 @@
         <v>6718</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3003</v>
+        <v>3067</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>12423</v>
+        <v>13284</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2229348341169595</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09966348032543819</v>
+        <v>0.101763010442245</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4122495687783075</v>
+        <v>0.4408030359136704</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>19</v>
@@ -1003,19 +1003,19 @@
         <v>22302</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>14921</v>
+        <v>14345</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>31633</v>
+        <v>31712</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3058631905197138</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2046418376595572</v>
+        <v>0.196730675553426</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4338292274087589</v>
+        <v>0.434922040072299</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>27196</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>19921</v>
+        <v>19761</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>33685</v>
+        <v>33918</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6357194188255424</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4656556506240394</v>
+        <v>0.4619321063944507</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7873894494180536</v>
+        <v>0.7928513277506363</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>22</v>
@@ -1053,19 +1053,19 @@
         <v>23417</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>17712</v>
+        <v>16851</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>27132</v>
+        <v>27068</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7770651658830405</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5877504312216922</v>
+        <v>0.5591969640863291</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9003365196745617</v>
+        <v>0.898236989557755</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>48</v>
@@ -1074,19 +1074,19 @@
         <v>50613</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>41282</v>
+        <v>41203</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>57994</v>
+        <v>58570</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6941368094802862</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5661707725912413</v>
+        <v>0.5650779599277012</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7953581623404429</v>
+        <v>0.8032693244465741</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>8270</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4055</v>
+        <v>4319</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13579</v>
+        <v>13621</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3473819753620774</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1703433647057397</v>
+        <v>0.1814258072673736</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5703921128973102</v>
+        <v>0.5721545114728827</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -1199,19 +1199,19 @@
         <v>5199</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1752</v>
+        <v>1966</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9861</v>
+        <v>10133</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2155975642825001</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07267225948455147</v>
+        <v>0.08154206579748524</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4089321953564491</v>
+        <v>0.4201954410141532</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>13</v>
@@ -1220,19 +1220,19 @@
         <v>13469</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7782</v>
+        <v>7385</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>20982</v>
+        <v>20240</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2810653608226597</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1623935731808939</v>
+        <v>0.1541107464763569</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4378614121108367</v>
+        <v>0.4223709438290595</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>15536</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>10227</v>
+        <v>10185</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>19751</v>
+        <v>19487</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6526180246379226</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4296078871026898</v>
+        <v>0.4278454885271175</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8296566352942603</v>
+        <v>0.8185741927326264</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>19</v>
@@ -1270,19 +1270,19 @@
         <v>18915</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>14253</v>
+        <v>13981</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>22362</v>
+        <v>22148</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7844024357174999</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5910678046435505</v>
+        <v>0.5798045589858468</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9273277405154431</v>
+        <v>0.9184579342025146</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>34</v>
@@ -1291,19 +1291,19 @@
         <v>34451</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>26938</v>
+        <v>27680</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>40138</v>
+        <v>40535</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7189346391773402</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5621385878891635</v>
+        <v>0.5776290561709411</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8376064268191064</v>
+        <v>0.8458892535236433</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>9195</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4854</v>
+        <v>5084</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>14989</v>
+        <v>15724</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2727646988030472</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1440048805690326</v>
+        <v>0.1508139392270173</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4446492118832002</v>
+        <v>0.4664399357449272</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -1416,19 +1416,19 @@
         <v>5008</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1882</v>
+        <v>1825</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>10103</v>
+        <v>9626</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2113921858518354</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07946222769651362</v>
+        <v>0.07703895838464367</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4265032610935743</v>
+        <v>0.4063661831930254</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>14</v>
@@ -1437,19 +1437,19 @@
         <v>14203</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>8287</v>
+        <v>8512</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>22930</v>
+        <v>22059</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2474357358524805</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1443806843233194</v>
+        <v>0.1482922717858031</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3994766304268677</v>
+        <v>0.3843032723284207</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>24515</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>18721</v>
+        <v>17986</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>28856</v>
+        <v>28626</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7272353011969528</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5553507881168005</v>
+        <v>0.5335600642550729</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8559951194309676</v>
+        <v>0.8491860607729828</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>17</v>
@@ -1487,19 +1487,19 @@
         <v>18681</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>13586</v>
+        <v>14063</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>21807</v>
+        <v>21864</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7886078141481646</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5734967389064256</v>
+        <v>0.5936338168069742</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9205377723034862</v>
+        <v>0.9229610416153563</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>42</v>
@@ -1508,19 +1508,19 @@
         <v>43196</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>34469</v>
+        <v>35340</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>49112</v>
+        <v>48887</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7525642641475195</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6005233695731327</v>
+        <v>0.6156967276715795</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8556193156766807</v>
+        <v>0.851707728214197</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>39763</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>29408</v>
+        <v>29914</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>51030</v>
+        <v>51437</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3230764347150515</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2389397888752874</v>
+        <v>0.2430528341255305</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4146209890218554</v>
+        <v>0.4179216967580174</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>19</v>
@@ -1633,19 +1633,19 @@
         <v>19701</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>12353</v>
+        <v>12532</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>28571</v>
+        <v>28174</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2100223889760512</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1316904500080397</v>
+        <v>0.133595793279521</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3045724217322173</v>
+        <v>0.3003397287403855</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>56</v>
@@ -1654,19 +1654,19 @@
         <v>59465</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>46697</v>
+        <v>45412</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>73896</v>
+        <v>73287</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2741784395234172</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2153103892925158</v>
+        <v>0.2093866616748172</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3407194650105247</v>
+        <v>0.3379099505237056</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>83314</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>72047</v>
+        <v>71640</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>93669</v>
+        <v>93163</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6769235652849485</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5853790109781448</v>
+        <v>0.5820783032419826</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.761060211124713</v>
+        <v>0.7569471658744694</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>71</v>
@@ -1704,19 +1704,19 @@
         <v>74105</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>65235</v>
+        <v>65632</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>81453</v>
+        <v>81274</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7899776110239487</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6954275782677825</v>
+        <v>0.6996602712596148</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8683095499919603</v>
+        <v>0.866404206720479</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>153</v>
@@ -1725,19 +1725,19 @@
         <v>157418</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>142987</v>
+        <v>143596</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>170186</v>
+        <v>171471</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7258215604765827</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6592805349894755</v>
+        <v>0.6620900494762944</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7846896107074846</v>
+        <v>0.7906133383251815</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>11927</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6952</v>
+        <v>6583</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>18223</v>
+        <v>18873</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2020819995543078</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1177848543031518</v>
+        <v>0.1115350626575173</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3087458459681086</v>
+        <v>0.3197679759785388</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -2090,19 +2090,19 @@
         <v>5729</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2025</v>
+        <v>1979</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12381</v>
+        <v>12124</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1091789272145095</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03859617120230465</v>
+        <v>0.03770435257253058</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2359439556581187</v>
+        <v>0.2310370677023961</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>17</v>
@@ -2111,19 +2111,19 @@
         <v>17657</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>10749</v>
+        <v>10600</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>27568</v>
+        <v>27249</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1583575804132392</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09640350540331089</v>
+        <v>0.0950719345120552</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2472512605342449</v>
+        <v>0.2443898599808902</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>47095</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>40799</v>
+        <v>40149</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>52070</v>
+        <v>52439</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7979180004456922</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6912541540318919</v>
+        <v>0.6802320240214613</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8822151456968482</v>
+        <v>0.8884649373424828</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>44</v>
@@ -2161,19 +2161,19 @@
         <v>46747</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>40095</v>
+        <v>40352</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>50451</v>
+        <v>50497</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8908210727854905</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7640560443418812</v>
+        <v>0.7689629322976037</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9614038287976954</v>
+        <v>0.9622956474274694</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>92</v>
@@ -2182,19 +2182,19 @@
         <v>93841</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>83930</v>
+        <v>84249</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>100749</v>
+        <v>100898</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8416424195867608</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.752748739465755</v>
+        <v>0.7556101400191099</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9035964945966891</v>
+        <v>0.9049280654879448</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>19487</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11935</v>
+        <v>12235</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>29175</v>
+        <v>29284</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2397280291454817</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.146825218170616</v>
+        <v>0.1505121311008433</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3589067633003097</v>
+        <v>0.3602510734279189</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>13</v>
@@ -2307,19 +2307,19 @@
         <v>13183</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8039</v>
+        <v>7186</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>20722</v>
+        <v>19755</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1766641119942331</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1077259231202266</v>
+        <v>0.09629735432609306</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2776904490240413</v>
+        <v>0.2647301093298013</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>30</v>
@@ -2328,19 +2328,19 @@
         <v>32671</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>23079</v>
+        <v>22805</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>46361</v>
+        <v>43581</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2095442254372352</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1480232039919456</v>
+        <v>0.1462649915722077</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2973496873977386</v>
+        <v>0.2795198766917442</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>61802</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>52114</v>
+        <v>52005</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>69354</v>
+        <v>69054</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7602719708545183</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6410932366996903</v>
+        <v>0.6397489265720812</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.853174781829384</v>
+        <v>0.8494878688991568</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>57</v>
@@ -2378,19 +2378,19 @@
         <v>61440</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>53901</v>
+        <v>54868</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>66584</v>
+        <v>67437</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.823335888005767</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7223095509759592</v>
+        <v>0.7352698906701977</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8922740768797733</v>
+        <v>0.9037026456739069</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>113</v>
@@ -2399,19 +2399,19 @@
         <v>123242</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>109552</v>
+        <v>112332</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>132834</v>
+        <v>133108</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7904557745627648</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7026503126022615</v>
+        <v>0.7204801233082558</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8519767960080544</v>
+        <v>0.8537350084277923</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>17463</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11385</v>
+        <v>11256</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>25119</v>
+        <v>25032</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2989887815735744</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1949189277463449</v>
+        <v>0.192705686421661</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4300637738815393</v>
+        <v>0.4285730293443833</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>14</v>
@@ -2524,19 +2524,19 @@
         <v>14194</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8708</v>
+        <v>8757</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>21331</v>
+        <v>21624</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2488298492329029</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1526438372808157</v>
+        <v>0.1535062751660016</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3739346347159582</v>
+        <v>0.3790734626467425</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>32</v>
@@ -2545,19 +2545,19 @@
         <v>31658</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>22653</v>
+        <v>23058</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>41627</v>
+        <v>41972</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2742055981269945</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1962112040226518</v>
+        <v>0.1997189091057293</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3605497449209561</v>
+        <v>0.3635377411755477</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>40945</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>33289</v>
+        <v>33376</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>47023</v>
+        <v>47152</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7010112184264256</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5699362261184606</v>
+        <v>0.5714269706556167</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8050810722536551</v>
+        <v>0.807294313578339</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>39</v>
@@ -2595,19 +2595,19 @@
         <v>42851</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>35714</v>
+        <v>35421</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>48337</v>
+        <v>48288</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.751170150767097</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6260653652840418</v>
+        <v>0.6209265373532575</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8473561627191842</v>
+        <v>0.8464937248339984</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>78</v>
@@ -2616,19 +2616,19 @@
         <v>83795</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>73826</v>
+        <v>73481</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>92800</v>
+        <v>92395</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7257944018730055</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.639450255079044</v>
+        <v>0.6364622588244523</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8037887959773482</v>
+        <v>0.8002810908942707</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>24453</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>16699</v>
+        <v>16883</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>34055</v>
+        <v>34569</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2770850256696271</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1892221646668484</v>
+        <v>0.1913018255936388</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.385882340723213</v>
+        <v>0.3917128553683544</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>14</v>
@@ -2741,19 +2741,19 @@
         <v>15167</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>9121</v>
+        <v>9051</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>23325</v>
+        <v>23650</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2128346300671578</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1280010110691393</v>
+        <v>0.1270119178019147</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3273215155187215</v>
+        <v>0.3318846935898516</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>36</v>
@@ -2762,7 +2762,7 @@
         <v>39620</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>28597</v>
+        <v>28743</v>
       </c>
       <c r="T13" s="5" t="n">
         <v>51688</v>
@@ -2771,10 +2771,10 @@
         <v>0.2483818073128714</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1792777002253957</v>
+        <v>0.1801888848463957</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.324033288535317</v>
+        <v>0.3240362507222225</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>63799</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>54197</v>
+        <v>53683</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>71553</v>
+        <v>71369</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.722914974330373</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6141176592767867</v>
+        <v>0.6082871446316459</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8107778353331516</v>
+        <v>0.8086981744063612</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>53</v>
@@ -2812,19 +2812,19 @@
         <v>56094</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>47936</v>
+        <v>47611</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>62140</v>
+        <v>62210</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7871653699328421</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6726784844812783</v>
+        <v>0.6681153064101484</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8719989889308604</v>
+        <v>0.872988082198085</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>116</v>
@@ -2836,16 +2836,16 @@
         <v>107826</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>130917</v>
+        <v>130771</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7516181926871286</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.675966711464683</v>
+        <v>0.6759637492777782</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8207222997746043</v>
+        <v>0.8198111151536044</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>73331</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>60104</v>
+        <v>59286</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>90662</v>
+        <v>89578</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2555352827993448</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2094405095363446</v>
+        <v>0.2065912829350988</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3159262754222935</v>
+        <v>0.3121480792131686</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>46</v>
@@ -2958,19 +2958,19 @@
         <v>48274</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>36948</v>
+        <v>35140</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>62214</v>
+        <v>61123</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1890086961053687</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.144664184189985</v>
+        <v>0.137585550048613</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2435895379763178</v>
+        <v>0.2393188441249156</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>115</v>
@@ -2979,19 +2979,19 @@
         <v>121605</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>101870</v>
+        <v>103575</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>141283</v>
+        <v>145328</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2242079730860666</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1878209631863896</v>
+        <v>0.1909658620308997</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2604894028154898</v>
+        <v>0.2679466037707434</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>213641</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>196310</v>
+        <v>197394</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>226868</v>
+        <v>227686</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7444647172006551</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6840737245777064</v>
+        <v>0.6878519207868314</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7905594904636554</v>
+        <v>0.7934087170649011</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>193</v>
@@ -3029,19 +3029,19 @@
         <v>207131</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>193191</v>
+        <v>194282</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>218457</v>
+        <v>220265</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8109913038946314</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7564104620236822</v>
+        <v>0.7606811558750846</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8553358158100151</v>
+        <v>0.8624144499513872</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>399</v>
@@ -3050,19 +3050,19 @@
         <v>420772</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>401094</v>
+        <v>397049</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>440507</v>
+        <v>438802</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7757920269139333</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7395105971845102</v>
+        <v>0.7320533962292566</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8121790368136105</v>
+        <v>0.8090341379691003</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>7737</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3633</v>
+        <v>3800</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13635</v>
+        <v>13622</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1946774766101712</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09140689899480152</v>
+        <v>0.09561296905578992</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3430727135282405</v>
+        <v>0.3427540953915884</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -3415,19 +3415,19 @@
         <v>9363</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4750</v>
+        <v>5253</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>16081</v>
+        <v>15491</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1923572285251499</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09759595062475281</v>
+        <v>0.1079256465628099</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3303752109480738</v>
+        <v>0.3182547904030149</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>18</v>
@@ -3436,19 +3436,19 @@
         <v>17100</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>10827</v>
+        <v>11061</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>25572</v>
+        <v>24980</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1934001517616989</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1224535401309907</v>
+        <v>0.1251043564004534</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2892138061317589</v>
+        <v>0.28252168343203</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>32006</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>26108</v>
+        <v>26121</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>36110</v>
+        <v>35943</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8053225233898288</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6569272864717594</v>
+        <v>0.6572459046084117</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9085931010051983</v>
+        <v>0.90438703094421</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>36</v>
@@ -3486,19 +3486,19 @@
         <v>39312</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>32594</v>
+        <v>33184</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>43925</v>
+        <v>43422</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8076427714748501</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6696247890519254</v>
+        <v>0.6817452095969855</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9024040493752464</v>
+        <v>0.89207435343719</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>69</v>
@@ -3507,19 +3507,19 @@
         <v>71318</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>62846</v>
+        <v>63438</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>77591</v>
+        <v>77357</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8065998482383011</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7107861938682409</v>
+        <v>0.71747831656797</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8775464598690091</v>
+        <v>0.8748956435995466</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>12249</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6959</v>
+        <v>6558</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>19977</v>
+        <v>19896</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2025485676747312</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.115064356743166</v>
+        <v>0.1084372899909174</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3303300153766374</v>
+        <v>0.3289948545257069</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>8</v>
@@ -3632,19 +3632,19 @@
         <v>8439</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3801</v>
+        <v>4014</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14805</v>
+        <v>15223</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1736500546131217</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07822020384410557</v>
+        <v>0.08259484095121894</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3046459777629337</v>
+        <v>0.3132437370594214</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>19</v>
@@ -3653,19 +3653,19 @@
         <v>20688</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>13148</v>
+        <v>12784</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>29645</v>
+        <v>30097</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1896724876491105</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1205465621830537</v>
+        <v>0.117206785646334</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2717839825077815</v>
+        <v>0.2759352270125627</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>48226</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>40498</v>
+        <v>40579</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>53516</v>
+        <v>53917</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7974514323252688</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6696699846233629</v>
+        <v>0.6710051454742931</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.884935643256834</v>
+        <v>0.8915627100090824</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>36</v>
@@ -3703,19 +3703,19 @@
         <v>40160</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>33794</v>
+        <v>33376</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>44798</v>
+        <v>44585</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8263499453868783</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6953540222370662</v>
+        <v>0.6867562629405786</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9217797961558944</v>
+        <v>0.9174051590487811</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>82</v>
@@ -3724,19 +3724,19 @@
         <v>88386</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>79429</v>
+        <v>78977</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>95926</v>
+        <v>96290</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8103275123508895</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7282160174922184</v>
+        <v>0.7240647729874373</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8794534378169463</v>
+        <v>0.882793214353666</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>7310</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3056</v>
+        <v>3206</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12853</v>
+        <v>13020</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1993560033289447</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08333517313279662</v>
+        <v>0.08745096449656173</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3505456660510043</v>
+        <v>0.3550987211548102</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -3849,19 +3849,19 @@
         <v>5195</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2047</v>
+        <v>1955</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>10809</v>
+        <v>10304</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1645874053677306</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06487122689431145</v>
+        <v>0.06195830226180236</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3424831402221627</v>
+        <v>0.3264750415597144</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>12</v>
@@ -3870,19 +3870,19 @@
         <v>12504</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7248</v>
+        <v>6980</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>19951</v>
+        <v>19566</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.183272475782293</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1062370061538259</v>
+        <v>0.1022984563242442</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2924182117427116</v>
+        <v>0.2867763452406514</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>29356</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>23813</v>
+        <v>23646</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>33610</v>
+        <v>33460</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8006439966710552</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6494543339489957</v>
+        <v>0.6449012788451898</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9166648268672034</v>
+        <v>0.9125490355034382</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>23</v>
@@ -3920,19 +3920,19 @@
         <v>26366</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>20752</v>
+        <v>21257</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>29514</v>
+        <v>29606</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8354125946322695</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6575168597778376</v>
+        <v>0.6735249584402854</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9351287731056884</v>
+        <v>0.9380416977381977</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>50</v>
@@ -3941,19 +3941,19 @@
         <v>55723</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>48276</v>
+        <v>48661</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>60979</v>
+        <v>61247</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.816727524217707</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7075817882572865</v>
+        <v>0.7132236547593488</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8937629938461741</v>
+        <v>0.8977015436757558</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>15365</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9546</v>
+        <v>9391</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>23246</v>
+        <v>23593</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2523554706571567</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1567904048593649</v>
+        <v>0.1542353833838097</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3817929144945018</v>
+        <v>0.3874981941601697</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>8</v>
@@ -4066,19 +4066,19 @@
         <v>9372</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4425</v>
+        <v>4047</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>17400</v>
+        <v>16635</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1496744193711015</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07066781984272066</v>
+        <v>0.06463611598760118</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2778828675500379</v>
+        <v>0.265658405756326</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>23</v>
@@ -4087,19 +4087,19 @@
         <v>24737</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>16823</v>
+        <v>16692</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>35048</v>
+        <v>35108</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.20029489152733</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1362151172642696</v>
+        <v>0.1351523544650126</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2837823847620402</v>
+        <v>0.2842621910865676</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>45521</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>37640</v>
+        <v>37293</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>51340</v>
+        <v>51495</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7476445293428432</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6182070855054983</v>
+        <v>0.6125018058398304</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8432095951406351</v>
+        <v>0.8457646166161903</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>46</v>
@@ -4137,19 +4137,19 @@
         <v>53246</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>45218</v>
+        <v>45983</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>58193</v>
+        <v>58571</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8503255806288985</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.722117132449962</v>
+        <v>0.7343415942436733</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9293321801572793</v>
+        <v>0.9353638840123988</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>90</v>
@@ -4158,19 +4158,19 @@
         <v>98767</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>88456</v>
+        <v>88396</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>106681</v>
+        <v>106812</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.79970510847267</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7162176152379598</v>
+        <v>0.7157378089134323</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8637848827357304</v>
+        <v>0.8648476455349874</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>42660</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>32470</v>
+        <v>32501</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>55711</v>
+        <v>56229</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2157085934024668</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1641820121832644</v>
+        <v>0.1643357651045166</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2816978945282498</v>
+        <v>0.2843156618762898</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>31</v>
@@ -4283,19 +4283,19 @@
         <v>32369</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>22719</v>
+        <v>22600</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>43988</v>
+        <v>43647</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1690706121728705</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1186644548354692</v>
+        <v>0.1180463624590602</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.22975898931318</v>
+        <v>0.2279754496763468</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>72</v>
@@ -4304,19 +4304,19 @@
         <v>75030</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>60745</v>
+        <v>59660</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>93206</v>
+        <v>92264</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1927680054757041</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1560662216198467</v>
+        <v>0.1532792721136718</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2394675345479297</v>
+        <v>0.2370460040923512</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>155109</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>142058</v>
+        <v>141540</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>165299</v>
+        <v>165268</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7842914065975332</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7183021054717502</v>
+        <v>0.7156843381237098</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8358179878167354</v>
+        <v>0.8356642348954828</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>141</v>
@@ -4354,19 +4354,19 @@
         <v>159084</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>147465</v>
+        <v>147806</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>168734</v>
+        <v>168853</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8309293878271296</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7702410106868209</v>
+        <v>0.7720245503236532</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8813355451645312</v>
+        <v>0.8819536375409399</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>291</v>
@@ -4375,19 +4375,19 @@
         <v>314193</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>296017</v>
+        <v>296959</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>328478</v>
+        <v>329563</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8072319945242959</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7605324654520703</v>
+        <v>0.7629539959076491</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8439337783801534</v>
+        <v>0.8467207278863284</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>4758</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1513</v>
+        <v>1710</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9906</v>
+        <v>10196</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.09574336028737095</v>
+        <v>0.09574336028737092</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03044567348998409</v>
+        <v>0.03440648680002372</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1993599294230025</v>
+        <v>0.2051969593169967</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -4740,19 +4740,19 @@
         <v>8220</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4438</v>
+        <v>4429</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13996</v>
+        <v>14023</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1751930975824621</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09458873739255623</v>
+        <v>0.09439672849357898</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2982918522768961</v>
+        <v>0.2988654920114316</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>18</v>
@@ -4761,19 +4761,19 @@
         <v>12978</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7540</v>
+        <v>7425</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>20601</v>
+        <v>19957</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.1343298054728533</v>
+        <v>0.1343298054728534</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.078040194222234</v>
+        <v>0.07685508774650238</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2132323850200679</v>
+        <v>0.2065735262862023</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>44933</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>39785</v>
+        <v>39495</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>48178</v>
+        <v>47981</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9042566397126292</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8006400705769973</v>
+        <v>0.7948030406830031</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9695543265100148</v>
+        <v>0.9655935131999763</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>80</v>
@@ -4811,19 +4811,19 @@
         <v>38702</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>32926</v>
+        <v>32899</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>42484</v>
+        <v>42493</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.824806902417538</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7017081477231033</v>
+        <v>0.7011345079885679</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9054112626074435</v>
+        <v>0.9056032715064209</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>129</v>
@@ -4832,19 +4832,19 @@
         <v>83634</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>76011</v>
+        <v>76655</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>89072</v>
+        <v>89187</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8656701945271466</v>
+        <v>0.8656701945271469</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7867676149799321</v>
+        <v>0.7934264737137979</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9219598057777658</v>
+        <v>0.9231449122534975</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>21124</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12241</v>
+        <v>11810</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>33188</v>
+        <v>32944</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2866146788071656</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1660934502461238</v>
+        <v>0.160239128007871</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4502985860202187</v>
+        <v>0.4469898363632536</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>14</v>
@@ -4957,19 +4957,19 @@
         <v>16920</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9604</v>
+        <v>9685</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>28081</v>
+        <v>27638</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2694163547401709</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1529249474235209</v>
+        <v>0.1542060991967414</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4471270935091823</v>
+        <v>0.440072025526885</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>26</v>
@@ -4978,19 +4978,19 @@
         <v>38045</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>25603</v>
+        <v>25485</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>52001</v>
+        <v>53709</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2787020406506771</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1875575161425248</v>
+        <v>0.1866916343923439</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.380940026863991</v>
+        <v>0.3934529492085845</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>52578</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>40514</v>
+        <v>40758</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>61461</v>
+        <v>61892</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7133853211928345</v>
+        <v>0.7133853211928346</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5497014139797808</v>
+        <v>0.5530101636367464</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8339065497538761</v>
+        <v>0.8397608719921289</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>74</v>
@@ -5028,19 +5028,19 @@
         <v>45884</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>34723</v>
+        <v>35166</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>53200</v>
+        <v>53119</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7305836452598291</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5528729064908153</v>
+        <v>0.5599279744731149</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8470750525764791</v>
+        <v>0.8457939008032583</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>126</v>
@@ -5049,19 +5049,19 @@
         <v>98461</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>84505</v>
+        <v>82797</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>110903</v>
+        <v>111021</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7212979593493228</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.619059973136009</v>
+        <v>0.6065470507914147</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8124424838574751</v>
+        <v>0.8133083656076562</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>8329</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4045</v>
+        <v>3528</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14968</v>
+        <v>14798</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2526054495416361</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1226902699733154</v>
+        <v>0.1069995548103914</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4539744709989511</v>
+        <v>0.4488028649228867</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -5174,19 +5174,19 @@
         <v>5771</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2119</v>
+        <v>2150</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13761</v>
+        <v>13411</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1166380951709369</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04283291339616294</v>
+        <v>0.04344178806171448</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2781139189458066</v>
+        <v>0.2710294418418031</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>13</v>
@@ -5195,19 +5195,19 @@
         <v>14100</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7551</v>
+        <v>7698</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>23599</v>
+        <v>23105</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1710100431624584</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09158229099129177</v>
+        <v>0.09335856251531835</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2862183658346708</v>
+        <v>0.2802271803320018</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>24643</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>18004</v>
+        <v>18174</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>28927</v>
+        <v>29444</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.747394550458364</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5460255290010482</v>
+        <v>0.5511971350771128</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8773097300266843</v>
+        <v>0.8930004451896086</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>63</v>
@@ -5245,19 +5245,19 @@
         <v>43710</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>35720</v>
+        <v>36070</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>47362</v>
+        <v>47331</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8833619048290631</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7218860810541935</v>
+        <v>0.7289705581581969</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.957167086603837</v>
+        <v>0.9565582119382856</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>86</v>
@@ -5266,19 +5266,19 @@
         <v>68352</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>58853</v>
+        <v>59347</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>74901</v>
+        <v>74754</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8289899568375416</v>
+        <v>0.8289899568375415</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7137816341653296</v>
+        <v>0.7197728196679983</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9084177090087081</v>
+        <v>0.9066414374846815</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>25146</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>16286</v>
+        <v>16942</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>33231</v>
+        <v>33423</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3957174014227133</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2562878574687402</v>
+        <v>0.2666029140987477</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5229441510703098</v>
+        <v>0.5259712321880147</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>27</v>
@@ -5391,19 +5391,19 @@
         <v>20113</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>14103</v>
+        <v>14307</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>26690</v>
+        <v>26931</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.2756173271040528</v>
+        <v>0.2756173271040527</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1932596357164581</v>
+        <v>0.1960552046226088</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3657542652929311</v>
+        <v>0.3690577912633659</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>52</v>
@@ -5412,19 +5412,19 @@
         <v>45259</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>36183</v>
+        <v>35160</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>56720</v>
+        <v>56175</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3315206840341432</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.265037029170327</v>
+        <v>0.2575475029915953</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4154688103158503</v>
+        <v>0.4114817207878053</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>38400</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>30315</v>
+        <v>30123</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>47260</v>
+        <v>46604</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6042825985772867</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4770558489296898</v>
+        <v>0.4740287678119861</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7437121425312598</v>
+        <v>0.7333970859012524</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>83</v>
@@ -5462,19 +5462,19 @@
         <v>52860</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>46283</v>
+        <v>46042</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>58870</v>
+        <v>58666</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7243826728959473</v>
+        <v>0.7243826728959474</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6342457347070694</v>
+        <v>0.630942208736634</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8067403642835421</v>
+        <v>0.8039447953773913</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>120</v>
@@ -5483,19 +5483,19 @@
         <v>91261</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>79800</v>
+        <v>80345</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>100337</v>
+        <v>101360</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6684793159658569</v>
+        <v>0.6684793159658567</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5845311896841497</v>
+        <v>0.5885182792121946</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7349629708296731</v>
+        <v>0.7424524970084047</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>59357</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>44562</v>
+        <v>45697</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>73981</v>
+        <v>77289</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2699134302077135</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2026383402465131</v>
+        <v>0.2077981740745277</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3364132668823666</v>
+        <v>0.3514563479281673</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>59</v>
@@ -5608,19 +5608,19 @@
         <v>51025</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>39633</v>
+        <v>38743</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>67020</v>
+        <v>66894</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2197644177356747</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1706999571345903</v>
+        <v>0.1668654857630554</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2886570450938562</v>
+        <v>0.2881133671487925</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>109</v>
@@ -5629,19 +5629,19 @@
         <v>110382</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>92154</v>
+        <v>90633</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>130724</v>
+        <v>130427</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2441584401993203</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2038398637151009</v>
+        <v>0.200474093143238</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2891545625034595</v>
+        <v>0.2884977100951789</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>160554</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>145930</v>
+        <v>142622</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>175349</v>
+        <v>174214</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7300865697922864</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6635867331176338</v>
+        <v>0.6485436520718326</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7973616597534872</v>
+        <v>0.7922018259254718</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>300</v>
@@ -5679,19 +5679,19 @@
         <v>181155</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>165160</v>
+        <v>165286</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>192547</v>
+        <v>193437</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.7802355822643254</v>
+        <v>0.7802355822643252</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.711342954906144</v>
+        <v>0.7118866328512083</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8293000428654097</v>
+        <v>0.8331345142369447</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>461</v>
@@ -5700,19 +5700,19 @@
         <v>341709</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>321367</v>
+        <v>321664</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>359937</v>
+        <v>361458</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7558415598006797</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7108454374965403</v>
+        <v>0.7115022899048212</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7961601362848989</v>
+        <v>0.7995259068567623</v>
       </c>
     </row>
     <row r="18">
